--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H2">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I2">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J2">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.78343227249765</v>
+        <v>4.785814</v>
       </c>
       <c r="N2">
-        <v>4.78343227249765</v>
+        <v>9.571628</v>
       </c>
       <c r="O2">
-        <v>0.7006256527781625</v>
+        <v>0.6750138823283496</v>
       </c>
       <c r="P2">
-        <v>0.7006256527781625</v>
+        <v>0.5806605701408145</v>
       </c>
       <c r="Q2">
-        <v>1.967808557304369</v>
+        <v>3.20118312646</v>
       </c>
       <c r="R2">
-        <v>1.967808557304369</v>
+        <v>12.80473250584</v>
       </c>
       <c r="S2">
-        <v>0.00588346766210705</v>
+        <v>0.007965231173005108</v>
       </c>
       <c r="T2">
-        <v>0.00588346766210705</v>
+        <v>0.006682195544811084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.411380039520636</v>
+        <v>0.66889</v>
       </c>
       <c r="H3">
-        <v>0.411380039520636</v>
+        <v>1.33778</v>
       </c>
       <c r="I3">
-        <v>0.008397448250399588</v>
+        <v>0.01180009979280774</v>
       </c>
       <c r="J3">
-        <v>0.008397448250399588</v>
+        <v>0.01150792026947964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.04394016744956</v>
+        <v>2.304135</v>
       </c>
       <c r="N3">
-        <v>2.04394016744956</v>
+        <v>6.912405000000001</v>
       </c>
       <c r="O3">
-        <v>0.2993743472218375</v>
+        <v>0.3249861176716504</v>
       </c>
       <c r="P3">
-        <v>0.2993743472218375</v>
+        <v>0.4193394298591856</v>
       </c>
       <c r="Q3">
-        <v>0.8408361868632154</v>
+        <v>1.54121286015</v>
       </c>
       <c r="R3">
-        <v>0.8408361868632154</v>
+        <v>9.247277160900001</v>
       </c>
       <c r="S3">
-        <v>0.002513980588292538</v>
+        <v>0.003834868619802634</v>
       </c>
       <c r="T3">
-        <v>0.002513980588292538</v>
+        <v>0.004825724724668559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H4">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I4">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J4">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.78343227249765</v>
+        <v>4.785814</v>
       </c>
       <c r="N4">
-        <v>4.78343227249765</v>
+        <v>9.571628</v>
       </c>
       <c r="O4">
-        <v>0.7006256527781625</v>
+        <v>0.6750138823283496</v>
       </c>
       <c r="P4">
-        <v>0.7006256527781625</v>
+        <v>0.5806605701408145</v>
       </c>
       <c r="Q4">
-        <v>9.790283601090405</v>
+        <v>11.24524470378467</v>
       </c>
       <c r="R4">
-        <v>9.790283601090405</v>
+        <v>67.471468222708</v>
       </c>
       <c r="S4">
-        <v>0.02927155528217524</v>
+        <v>0.02798058409164098</v>
       </c>
       <c r="T4">
-        <v>0.02927155528217524</v>
+        <v>0.0352102274806611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.04670685051394</v>
+        <v>2.349703666666667</v>
       </c>
       <c r="H5">
-        <v>2.04670685051394</v>
+        <v>7.049111</v>
       </c>
       <c r="I5">
-        <v>0.04177916575864148</v>
+        <v>0.04145186465665943</v>
       </c>
       <c r="J5">
-        <v>0.04177916575864148</v>
+        <v>0.0606382270318826</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.04394016744956</v>
+        <v>2.304135</v>
       </c>
       <c r="N5">
-        <v>2.04394016744956</v>
+        <v>6.912405000000001</v>
       </c>
       <c r="O5">
-        <v>0.2993743472218375</v>
+        <v>0.3249861176716504</v>
       </c>
       <c r="P5">
-        <v>0.2993743472218375</v>
+        <v>0.4193394298591856</v>
       </c>
       <c r="Q5">
-        <v>4.183346342759624</v>
+        <v>5.414034457995</v>
       </c>
       <c r="R5">
-        <v>4.183346342759624</v>
+        <v>48.726310121955</v>
       </c>
       <c r="S5">
-        <v>0.01250761047646624</v>
+        <v>0.01347128056501845</v>
       </c>
       <c r="T5">
-        <v>0.01250761047646624</v>
+        <v>0.02542799955122151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H6">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I6">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J6">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.78343227249765</v>
+        <v>4.785814</v>
       </c>
       <c r="N6">
-        <v>4.78343227249765</v>
+        <v>9.571628</v>
       </c>
       <c r="O6">
-        <v>0.7006256527781625</v>
+        <v>0.6750138823283496</v>
       </c>
       <c r="P6">
-        <v>0.7006256527781625</v>
+        <v>0.5806605701408145</v>
       </c>
       <c r="Q6">
-        <v>0.5840767181914608</v>
+        <v>0.1008530536933333</v>
       </c>
       <c r="R6">
-        <v>0.5840767181914608</v>
+        <v>0.6051183221600001</v>
       </c>
       <c r="S6">
-        <v>0.00174630630145062</v>
+        <v>0.0002509440589421195</v>
       </c>
       <c r="T6">
-        <v>0.00174630630145062</v>
+        <v>0.0003157831649022685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.122104105361669</v>
+        <v>0.02107333333333333</v>
       </c>
       <c r="H7">
-        <v>0.122104105361669</v>
+        <v>0.06322</v>
       </c>
       <c r="I7">
-        <v>0.002492495521004779</v>
+        <v>0.000371761330413723</v>
       </c>
       <c r="J7">
-        <v>0.002492495521004779</v>
+        <v>0.0005438343520134124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.04394016744956</v>
+        <v>2.304135</v>
       </c>
       <c r="N7">
-        <v>2.04394016744956</v>
+        <v>6.912405000000001</v>
       </c>
       <c r="O7">
-        <v>0.2993743472218375</v>
+        <v>0.3249861176716504</v>
       </c>
       <c r="P7">
-        <v>0.2993743472218375</v>
+        <v>0.4193394298591856</v>
       </c>
       <c r="Q7">
-        <v>0.2495734855592085</v>
+        <v>0.0485558049</v>
       </c>
       <c r="R7">
-        <v>0.2495734855592085</v>
+        <v>0.4370022441</v>
       </c>
       <c r="S7">
-        <v>0.0007461892195541597</v>
+        <v>0.0001208172714716035</v>
       </c>
       <c r="T7">
-        <v>0.0007461892195541597</v>
+        <v>0.000228051187111144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H8">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I8">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J8">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.78343227249765</v>
+        <v>4.785814</v>
       </c>
       <c r="N8">
-        <v>4.78343227249765</v>
+        <v>9.571628</v>
       </c>
       <c r="O8">
-        <v>0.7006256527781625</v>
+        <v>0.6750138823283496</v>
       </c>
       <c r="P8">
-        <v>0.7006256527781625</v>
+        <v>0.5806605701408145</v>
       </c>
       <c r="Q8">
-        <v>1.415141284589199</v>
+        <v>0.614694735974</v>
       </c>
       <c r="R8">
-        <v>1.415141284589199</v>
+        <v>3.688168415844</v>
       </c>
       <c r="S8">
-        <v>0.004231071134581602</v>
+        <v>0.001529492528056854</v>
       </c>
       <c r="T8">
-        <v>0.004231071134581602</v>
+        <v>0.001924683904613047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.295842232935032</v>
+        <v>0.128441</v>
       </c>
       <c r="H9">
-        <v>0.295842232935032</v>
+        <v>0.385323</v>
       </c>
       <c r="I9">
-        <v>0.006038989748383188</v>
+        <v>0.002265868255599604</v>
       </c>
       <c r="J9">
-        <v>0.006038989748383188</v>
+        <v>0.00331464542899184</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.04394016744956</v>
+        <v>2.304135</v>
       </c>
       <c r="N9">
-        <v>2.04394016744956</v>
+        <v>6.912405000000001</v>
       </c>
       <c r="O9">
-        <v>0.2993743472218375</v>
+        <v>0.3249861176716504</v>
       </c>
       <c r="P9">
-        <v>0.2993743472218375</v>
+        <v>0.4193394298591856</v>
       </c>
       <c r="Q9">
-        <v>0.604683823123881</v>
+        <v>0.295945403535</v>
       </c>
       <c r="R9">
-        <v>0.604683823123881</v>
+        <v>2.663508631815</v>
       </c>
       <c r="S9">
-        <v>0.001807918613801586</v>
+        <v>0.0007363757275427502</v>
       </c>
       <c r="T9">
-        <v>0.001807918613801586</v>
+        <v>0.001389961524378794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.1126627723926</v>
+        <v>0.3791873333333333</v>
       </c>
       <c r="H10">
-        <v>46.1126627723926</v>
+        <v>1.137562</v>
       </c>
       <c r="I10">
-        <v>0.941291900721571</v>
+        <v>0.006689363532870856</v>
       </c>
       <c r="J10">
-        <v>0.941291900721571</v>
+        <v>0.009785594640067724</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.78343227249765</v>
+        <v>4.785814</v>
       </c>
       <c r="N10">
-        <v>4.78343227249765</v>
+        <v>9.571628</v>
       </c>
       <c r="O10">
-        <v>0.7006256527781625</v>
+        <v>0.6750138823283496</v>
       </c>
       <c r="P10">
-        <v>0.7006256527781625</v>
+        <v>0.5806605701408145</v>
       </c>
       <c r="Q10">
-        <v>220.5767992762637</v>
+        <v>1.814720048489333</v>
       </c>
       <c r="R10">
-        <v>220.5767992762637</v>
+        <v>10.888320290936</v>
       </c>
       <c r="S10">
-        <v>0.659493252397848</v>
+        <v>0.004515413248628841</v>
       </c>
       <c r="T10">
-        <v>0.659493252397848</v>
+        <v>0.005682108962868623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,185 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3791873333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.137562</v>
+      </c>
+      <c r="I11">
+        <v>0.006689363532870856</v>
+      </c>
+      <c r="J11">
+        <v>0.009785594640067724</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.304135</v>
+      </c>
+      <c r="N11">
+        <v>6.912405000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3249861176716504</v>
+      </c>
+      <c r="P11">
+        <v>0.4193394298591856</v>
+      </c>
+      <c r="Q11">
+        <v>0.87369880629</v>
+      </c>
+      <c r="R11">
+        <v>7.863289256610001</v>
+      </c>
+      <c r="S11">
+        <v>0.002173950284242015</v>
+      </c>
+      <c r="T11">
+        <v>0.004103485677199102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="H11">
-        <v>46.1126627723926</v>
-      </c>
-      <c r="I11">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="J11">
-        <v>0.941291900721571</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.04394016744956</v>
-      </c>
-      <c r="N11">
-        <v>2.04394016744956</v>
-      </c>
-      <c r="O11">
-        <v>0.2993743472218375</v>
-      </c>
-      <c r="P11">
-        <v>0.2993743472218375</v>
-      </c>
-      <c r="Q11">
-        <v>94.25152366854924</v>
-      </c>
-      <c r="R11">
-        <v>94.25152366854924</v>
-      </c>
-      <c r="S11">
-        <v>0.281798648323723</v>
-      </c>
-      <c r="T11">
-        <v>0.281798648323723</v>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53.1378185</v>
+      </c>
+      <c r="H12">
+        <v>106.275637</v>
+      </c>
+      <c r="I12">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J12">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.785814</v>
+      </c>
+      <c r="N12">
+        <v>9.571628</v>
+      </c>
+      <c r="O12">
+        <v>0.6750138823283496</v>
+      </c>
+      <c r="P12">
+        <v>0.5806605701408145</v>
+      </c>
+      <c r="Q12">
+        <v>254.307715706759</v>
+      </c>
+      <c r="R12">
+        <v>1017.230862827036</v>
+      </c>
+      <c r="S12">
+        <v>0.6327722172280758</v>
+      </c>
+      <c r="T12">
+        <v>0.5308455710829584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.1378185</v>
+      </c>
+      <c r="H13">
+        <v>106.275637</v>
+      </c>
+      <c r="I13">
+        <v>0.9374210424316487</v>
+      </c>
+      <c r="J13">
+        <v>0.9142097782775648</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.304135</v>
+      </c>
+      <c r="N13">
+        <v>6.912405000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.3249861176716504</v>
+      </c>
+      <c r="P13">
+        <v>0.4193394298591856</v>
+      </c>
+      <c r="Q13">
+        <v>122.4367074294975</v>
+      </c>
+      <c r="R13">
+        <v>734.6202445769851</v>
+      </c>
+      <c r="S13">
+        <v>0.3046488252035729</v>
+      </c>
+      <c r="T13">
+        <v>0.3833642071946065</v>
       </c>
     </row>
   </sheetData>
